--- a/7/1/2/1/Resto actividades económicas 2003 a 2021 - Trimestral.xlsx
+++ b/7/1/2/1/Resto actividades económicas 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Serie</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Mayo.2021</t>
   </si>
   <si>
+    <t>Agosto.2021</t>
+  </si>
+  <si>
     <t>01-01-2003</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -767,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG74"/>
+  <dimension ref="A1:BH75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,10 +957,13 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>11657</v>
@@ -1130,10 +1139,13 @@
       <c r="BG2">
         <v>17749</v>
       </c>
+      <c r="BH2">
+        <v>17749</v>
+      </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:60">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>11848</v>
@@ -1309,10 +1321,13 @@
       <c r="BG3">
         <v>18164</v>
       </c>
+      <c r="BH3">
+        <v>18164</v>
+      </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:60">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>11444</v>
@@ -1488,10 +1503,13 @@
       <c r="BG4">
         <v>17373</v>
       </c>
+      <c r="BH4">
+        <v>17373</v>
+      </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:60">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>11886</v>
@@ -1667,10 +1685,13 @@
       <c r="BG5">
         <v>18883</v>
       </c>
+      <c r="BH5">
+        <v>18883</v>
+      </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:60">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>12186</v>
@@ -1846,10 +1867,13 @@
       <c r="BG6">
         <v>18771</v>
       </c>
+      <c r="BH6">
+        <v>18771</v>
+      </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:60">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>12426</v>
@@ -2025,10 +2049,13 @@
       <c r="BG7">
         <v>19379</v>
       </c>
+      <c r="BH7">
+        <v>19379</v>
+      </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:60">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>12256</v>
@@ -2204,10 +2231,13 @@
       <c r="BG8">
         <v>18873</v>
       </c>
+      <c r="BH8">
+        <v>18873</v>
+      </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:60">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>12813</v>
@@ -2383,10 +2413,13 @@
       <c r="BG9">
         <v>20704</v>
       </c>
+      <c r="BH9">
+        <v>20704</v>
+      </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:60">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>12999</v>
@@ -2562,10 +2595,13 @@
       <c r="BG10">
         <v>20208</v>
       </c>
+      <c r="BH10">
+        <v>20208</v>
+      </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:60">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>13470</v>
@@ -2741,10 +2777,13 @@
       <c r="BG11">
         <v>20899</v>
       </c>
+      <c r="BH11">
+        <v>20899</v>
+      </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:60">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>12973</v>
@@ -2920,10 +2959,13 @@
       <c r="BG12">
         <v>20092</v>
       </c>
+      <c r="BH12">
+        <v>20092</v>
+      </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:60">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>13406</v>
@@ -3099,10 +3141,13 @@
       <c r="BG13">
         <v>22098</v>
       </c>
+      <c r="BH13">
+        <v>22098</v>
+      </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:60">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>13700</v>
@@ -3278,10 +3323,13 @@
       <c r="BG14">
         <v>21666</v>
       </c>
+      <c r="BH14">
+        <v>21666</v>
+      </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:60">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>14014</v>
@@ -3457,10 +3505,13 @@
       <c r="BG15">
         <v>22339</v>
       </c>
+      <c r="BH15">
+        <v>22339</v>
+      </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:60">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>13375</v>
@@ -3636,10 +3687,13 @@
       <c r="BG16">
         <v>21534</v>
       </c>
+      <c r="BH16">
+        <v>21534</v>
+      </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:60">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>14030</v>
@@ -3815,10 +3869,13 @@
       <c r="BG17">
         <v>23667</v>
       </c>
+      <c r="BH17">
+        <v>23667</v>
+      </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:60">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>14492</v>
@@ -3991,10 +4048,13 @@
       <c r="BG18">
         <v>22984</v>
       </c>
+      <c r="BH18">
+        <v>22984</v>
+      </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:60">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>14869</v>
@@ -4164,10 +4224,13 @@
       <c r="BG19">
         <v>23647</v>
       </c>
+      <c r="BH19">
+        <v>23647</v>
+      </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:60">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>13926</v>
@@ -4334,10 +4397,13 @@
       <c r="BG20">
         <v>22541</v>
       </c>
+      <c r="BH20">
+        <v>22541</v>
+      </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:60">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>14785</v>
@@ -4501,10 +4567,13 @@
       <c r="BG21">
         <v>24938</v>
       </c>
+      <c r="BH21">
+        <v>24938</v>
+      </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:60">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>14963</v>
@@ -4665,10 +4734,13 @@
       <c r="BG22">
         <v>24576</v>
       </c>
+      <c r="BH22">
+        <v>24576</v>
+      </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:60">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23">
         <v>15735</v>
@@ -4826,10 +4898,13 @@
       <c r="BG23">
         <v>25226</v>
       </c>
+      <c r="BH23">
+        <v>25226</v>
+      </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:60">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <v>14789</v>
@@ -4984,10 +5059,13 @@
       <c r="BG24">
         <v>23858</v>
       </c>
+      <c r="BH24">
+        <v>23858</v>
+      </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:60">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25">
         <v>14856</v>
@@ -5139,10 +5217,13 @@
       <c r="BG25">
         <v>25479</v>
       </c>
+      <c r="BH25">
+        <v>25479</v>
+      </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:60">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26">
         <v>14740</v>
@@ -5291,10 +5372,13 @@
       <c r="BG26">
         <v>24102</v>
       </c>
+      <c r="BH26">
+        <v>24102</v>
+      </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:60">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L27">
         <v>14994</v>
@@ -5440,10 +5524,13 @@
       <c r="BG27">
         <v>24369</v>
       </c>
+      <c r="BH27">
+        <v>24369</v>
+      </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:60">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M28">
         <v>14478</v>
@@ -5586,10 +5673,13 @@
       <c r="BG28">
         <v>23399</v>
       </c>
+      <c r="BH28">
+        <v>23399</v>
+      </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:60">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N29">
         <v>15268</v>
@@ -5729,10 +5819,13 @@
       <c r="BG29">
         <v>25557</v>
       </c>
+      <c r="BH29">
+        <v>25557</v>
+      </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:60">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30">
         <v>14908</v>
@@ -5869,10 +5962,13 @@
       <c r="BG30">
         <v>24422</v>
       </c>
+      <c r="BH30">
+        <v>24422</v>
+      </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:60">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P31">
         <v>16114</v>
@@ -6006,10 +6102,13 @@
       <c r="BG31">
         <v>26023</v>
       </c>
+      <c r="BH31">
+        <v>26023</v>
+      </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:60">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q32">
         <v>15673</v>
@@ -6140,10 +6239,13 @@
       <c r="BG32">
         <v>25293</v>
       </c>
+      <c r="BH32">
+        <v>25293</v>
+      </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:60">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R33">
         <v>16261</v>
@@ -6271,10 +6373,13 @@
       <c r="BG33">
         <v>27854</v>
       </c>
+      <c r="BH33">
+        <v>27854</v>
+      </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:60">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S34">
         <v>16512</v>
@@ -6399,10 +6504,13 @@
       <c r="BG34">
         <v>27248</v>
       </c>
+      <c r="BH34">
+        <v>27248</v>
+      </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:60">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T35">
         <v>17203</v>
@@ -6524,10 +6632,13 @@
       <c r="BG35">
         <v>28226</v>
       </c>
+      <c r="BH35">
+        <v>28226</v>
+      </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:60">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U36">
         <v>16503</v>
@@ -6646,10 +6757,13 @@
       <c r="BG36">
         <v>27038</v>
       </c>
+      <c r="BH36">
+        <v>27038</v>
+      </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:60">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V37">
         <v>24145</v>
@@ -6765,10 +6879,13 @@
       <c r="BG37">
         <v>29553</v>
       </c>
+      <c r="BH37">
+        <v>29553</v>
+      </c>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:60">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W38">
         <v>23769</v>
@@ -6881,10 +6998,13 @@
       <c r="BG38">
         <v>28681</v>
       </c>
+      <c r="BH38">
+        <v>28681</v>
+      </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:60">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X39">
         <v>24253</v>
@@ -6994,10 +7114,13 @@
       <c r="BG39">
         <v>29909</v>
       </c>
+      <c r="BH39">
+        <v>29909</v>
+      </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:60">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y40">
         <v>24073</v>
@@ -7104,10 +7227,13 @@
       <c r="BG40">
         <v>28518</v>
       </c>
+      <c r="BH40">
+        <v>28518</v>
+      </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:60">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z41">
         <v>25549</v>
@@ -7211,10 +7337,13 @@
       <c r="BG41">
         <v>31152</v>
       </c>
+      <c r="BH41">
+        <v>31152</v>
+      </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:60">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA42">
         <v>24233</v>
@@ -7315,10 +7444,13 @@
       <c r="BG42">
         <v>29673</v>
       </c>
+      <c r="BH42">
+        <v>29673</v>
+      </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:60">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB43">
         <v>25058</v>
@@ -7416,10 +7548,13 @@
       <c r="BG43">
         <v>31154</v>
       </c>
+      <c r="BH43">
+        <v>31154</v>
+      </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:60">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC44">
         <v>24829</v>
@@ -7514,10 +7649,13 @@
       <c r="BG44">
         <v>29583</v>
       </c>
+      <c r="BH44">
+        <v>29583</v>
+      </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:60">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD45">
         <v>26200</v>
@@ -7609,10 +7747,13 @@
       <c r="BG45">
         <v>32323</v>
       </c>
+      <c r="BH45">
+        <v>32323</v>
+      </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:60">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE46">
         <v>25127</v>
@@ -7701,10 +7842,13 @@
       <c r="BG46">
         <v>30429</v>
       </c>
+      <c r="BH46">
+        <v>30429</v>
+      </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:60">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF47">
         <v>25508</v>
@@ -7790,10 +7934,13 @@
       <c r="BG47">
         <v>31460</v>
       </c>
+      <c r="BH47">
+        <v>31460</v>
+      </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:60">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG48">
         <v>25103</v>
@@ -7876,10 +8023,13 @@
       <c r="BG48">
         <v>29966</v>
       </c>
+      <c r="BH48">
+        <v>29966</v>
+      </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:60">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH49">
         <v>26880</v>
@@ -7959,10 +8109,13 @@
       <c r="BG49">
         <v>32967</v>
       </c>
+      <c r="BH49">
+        <v>32967</v>
+      </c>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:60">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI50">
         <v>25776</v>
@@ -8039,10 +8192,13 @@
       <c r="BG50">
         <v>31155</v>
       </c>
+      <c r="BH50">
+        <v>31155</v>
+      </c>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:60">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AJ51">
         <v>26076</v>
@@ -8116,10 +8272,13 @@
       <c r="BG51">
         <v>32284</v>
       </c>
+      <c r="BH51">
+        <v>32284</v>
+      </c>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:60">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AK52">
         <v>25914</v>
@@ -8190,10 +8349,13 @@
       <c r="BG52">
         <v>30916</v>
       </c>
+      <c r="BH52">
+        <v>30916</v>
+      </c>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:60">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL53">
         <v>27241</v>
@@ -8261,10 +8423,13 @@
       <c r="BG53">
         <v>33836</v>
       </c>
+      <c r="BH53">
+        <v>33836</v>
+      </c>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:60">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM54">
         <v>26342</v>
@@ -8329,10 +8494,13 @@
       <c r="BG54">
         <v>32158</v>
       </c>
+      <c r="BH54">
+        <v>32158</v>
+      </c>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:60">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN55">
         <v>26732</v>
@@ -8394,10 +8562,13 @@
       <c r="BG55">
         <v>32886</v>
       </c>
+      <c r="BH55">
+        <v>32886</v>
+      </c>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:60">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO56">
         <v>26338</v>
@@ -8456,10 +8627,13 @@
       <c r="BG56">
         <v>31479</v>
       </c>
+      <c r="BH56">
+        <v>31479</v>
+      </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:60">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP57">
         <v>34083</v>
@@ -8515,10 +8689,13 @@
       <c r="BG57">
         <v>34322</v>
       </c>
+      <c r="BH57">
+        <v>34322</v>
+      </c>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:60">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AQ58">
         <v>32588</v>
@@ -8571,10 +8748,13 @@
       <c r="BG58">
         <v>32453</v>
       </c>
+      <c r="BH58">
+        <v>32453</v>
+      </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:60">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AR59">
         <v>32916</v>
@@ -8624,10 +8804,13 @@
       <c r="BG59">
         <v>33141</v>
       </c>
+      <c r="BH59">
+        <v>33141</v>
+      </c>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:60">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AS60">
         <v>32598</v>
@@ -8674,10 +8857,13 @@
       <c r="BG60">
         <v>31965</v>
       </c>
+      <c r="BH60">
+        <v>31965</v>
+      </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:60">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT61">
         <v>35030</v>
@@ -8721,10 +8907,13 @@
       <c r="BG61">
         <v>35115</v>
       </c>
+      <c r="BH61">
+        <v>35115</v>
+      </c>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:60">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AU62">
         <v>33730</v>
@@ -8765,10 +8954,13 @@
       <c r="BG62">
         <v>33543</v>
       </c>
+      <c r="BH62">
+        <v>33543</v>
+      </c>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:60">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AV63">
         <v>34514</v>
@@ -8806,10 +8998,13 @@
       <c r="BG63">
         <v>34808</v>
       </c>
+      <c r="BH63">
+        <v>34808</v>
+      </c>
     </row>
-    <row r="64" spans="1:59">
+    <row r="64" spans="1:60">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AW64">
         <v>33197</v>
@@ -8844,10 +9039,13 @@
       <c r="BG64">
         <v>32801</v>
       </c>
+      <c r="BH64">
+        <v>32801</v>
+      </c>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:60">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AX65">
         <v>36483</v>
@@ -8879,10 +9077,13 @@
       <c r="BG65">
         <v>36264</v>
       </c>
+      <c r="BH65">
+        <v>36264</v>
+      </c>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:60">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AY66">
         <v>34536</v>
@@ -8911,10 +9112,13 @@
       <c r="BG66">
         <v>34266</v>
       </c>
+      <c r="BH66">
+        <v>34266</v>
+      </c>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:60">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AZ67">
         <v>35205</v>
@@ -8940,10 +9144,13 @@
       <c r="BG67">
         <v>35515</v>
       </c>
+      <c r="BH67">
+        <v>35515</v>
+      </c>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:60">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BA68">
         <v>34412</v>
@@ -8966,10 +9173,13 @@
       <c r="BG68">
         <v>33968</v>
       </c>
+      <c r="BH68">
+        <v>33968</v>
+      </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:60">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BB69">
         <v>35619</v>
@@ -8989,10 +9199,13 @@
       <c r="BG69">
         <v>35535</v>
       </c>
+      <c r="BH69">
+        <v>35535</v>
+      </c>
     </row>
-    <row r="70" spans="1:59">
+    <row r="70" spans="1:60">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BC70">
         <v>34290</v>
@@ -9009,10 +9222,13 @@
       <c r="BG70">
         <v>34137</v>
       </c>
+      <c r="BH70">
+        <v>34137</v>
+      </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:60">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BD71">
         <v>30008</v>
@@ -9026,10 +9242,13 @@
       <c r="BG71">
         <v>29893</v>
       </c>
+      <c r="BH71">
+        <v>29893</v>
+      </c>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:60">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BE72">
         <v>30673</v>
@@ -9040,10 +9259,13 @@
       <c r="BG72">
         <v>30589</v>
       </c>
+      <c r="BH72">
+        <v>30589</v>
+      </c>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:60">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BF73">
         <v>35637</v>
@@ -9051,13 +9273,27 @@
       <c r="BG73">
         <v>35637</v>
       </c>
+      <c r="BH73">
+        <v>35637</v>
+      </c>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:60">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BG74">
         <v>34447</v>
+      </c>
+      <c r="BH74">
+        <v>34514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH75">
+        <v>35937</v>
       </c>
     </row>
   </sheetData>
